--- a/Form-responses.xlsx
+++ b/Form-responses.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Form responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -488,11 +488,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -540,6 +540,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -618,6 +623,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -652,6 +658,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -827,20 +834,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -890,7 +897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42048.621554074074</v>
       </c>
@@ -919,7 +926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>42048.635331226847</v>
       </c>
@@ -951,7 +958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>42048.645319826384</v>
       </c>
@@ -980,7 +987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>42048.653709467595</v>
       </c>
@@ -1006,7 +1013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>42048.666207592592</v>
       </c>
@@ -1047,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>42048.783007384263</v>
       </c>
@@ -1076,7 +1083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>42048.855386643525</v>
       </c>
@@ -1102,7 +1109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>42048.892595393518</v>
       </c>
@@ -1145,7 +1152,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>42048.894055428238</v>
       </c>
@@ -1174,7 +1181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>42049.459009756945</v>
       </c>
@@ -1206,7 +1213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>42052.439397048605</v>
       </c>
@@ -1232,7 +1239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>42053.607657766202</v>
       </c>
@@ -1258,7 +1265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>42053.721092523148</v>
       </c>
@@ -1284,7 +1291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>42055.786156932874</v>
       </c>
@@ -1325,7 +1332,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>42056.022829837959</v>
       </c>
@@ -1366,7 +1373,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>42056.027045740746</v>
       </c>
@@ -1404,7 +1411,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>42056.028934224538</v>
       </c>
@@ -1433,7 +1440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>42056.032036597222</v>
       </c>
@@ -1471,7 +1478,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>42056.039288425927</v>
       </c>
@@ -1497,7 +1504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>42056.043276296288</v>
       </c>
@@ -1526,7 +1533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>42056.044701990744</v>
       </c>
@@ -1570,7 +1577,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>42056.049572303236</v>
       </c>
@@ -1602,7 +1609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>42056.054205335648</v>
       </c>
@@ -1631,7 +1638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>42056.057534722218</v>
       </c>
@@ -1663,7 +1670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>42056.06673943287</v>
       </c>
@@ -1695,7 +1702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>42056.073841770834</v>
       </c>
@@ -1721,7 +1728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>42056.287083298608</v>
       </c>
@@ -1753,7 +1760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>42056.313379479165</v>
       </c>
@@ -1797,7 +1804,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>42056.322726712955</v>
       </c>
@@ -1829,7 +1836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>42056.326184212958</v>
       </c>
@@ -1858,7 +1865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>42056.328256053239</v>
       </c>
@@ -1902,7 +1909,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>42056.32890601852</v>
       </c>
@@ -1928,7 +1935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>42056.332855983797</v>
       </c>
@@ -1969,7 +1976,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>42056.343349432871</v>
       </c>
@@ -2001,7 +2008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>42056.344725312505</v>
       </c>
@@ -2033,7 +2040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>42056.355750810188</v>
       </c>
@@ -2062,7 +2069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>42056.359216064811</v>
       </c>
@@ -2100,7 +2107,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>42056.359435659724</v>
       </c>
@@ -2138,7 +2145,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>42056.388919999998</v>
       </c>
@@ -2167,7 +2174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>42056.38922730324</v>
       </c>
@@ -2199,7 +2206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1">
+    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>42056.398204375</v>
       </c>
@@ -2231,7 +2238,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1">
+    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42056.403718055553</v>
       </c>
@@ -2263,7 +2270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15.75" customHeight="1">
+    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>42056.404175393516</v>
       </c>
@@ -2304,7 +2311,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15.75" customHeight="1">
+    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>42056.4104800926</v>
       </c>
@@ -2333,7 +2340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1">
+    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>42056.42431076389</v>
       </c>
@@ -2368,7 +2375,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15.75" customHeight="1">
+    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>42056.434817824069</v>
       </c>
@@ -2406,7 +2413,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15.75" customHeight="1">
+    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>42056.441596840283</v>
       </c>
@@ -2438,7 +2445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15.75" customHeight="1">
+    <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>42056.44816905092</v>
       </c>
@@ -2467,7 +2474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15.75" customHeight="1">
+    <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>42056.450461516208</v>
       </c>
@@ -2502,7 +2509,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15.75" customHeight="1">
+    <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>42056.46240246528</v>
       </c>
@@ -2537,7 +2544,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15.75" customHeight="1">
+    <row r="52" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>42056.46254216435</v>
       </c>
@@ -2572,7 +2579,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="15.75" customHeight="1">
+    <row r="53" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>42056.464509826394</v>
       </c>
@@ -2616,7 +2623,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="15.75" customHeight="1">
+    <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>42056.469767094903</v>
       </c>
@@ -2657,7 +2664,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15.75" customHeight="1">
+    <row r="55" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>42056.469987858793</v>
       </c>
@@ -2701,7 +2708,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="15.75" customHeight="1">
+    <row r="56" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>42056.477490173609</v>
       </c>
@@ -2742,7 +2749,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="15.75" customHeight="1">
+    <row r="57" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>42056.478734571763</v>
       </c>
@@ -2774,7 +2781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="15.75" customHeight="1">
+    <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>42056.484558206022</v>
       </c>
@@ -2803,7 +2810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="15.75" customHeight="1">
+    <row r="59" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>42056.487100682876</v>
       </c>
@@ -2829,7 +2836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="15.75" customHeight="1">
+    <row r="60" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>42056.503657627312</v>
       </c>
@@ -2858,7 +2865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="15.75" customHeight="1">
+    <row r="61" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>42056.52125766204</v>
       </c>
@@ -2899,7 +2906,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="15.75" customHeight="1">
+    <row r="62" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>42056.526294594907</v>
       </c>
@@ -2940,7 +2947,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15.75" customHeight="1">
+    <row r="63" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>42056.531921550923</v>
       </c>
@@ -2969,7 +2976,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="15.75" customHeight="1">
+    <row r="64" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>42056.53214225694</v>
       </c>
@@ -2998,7 +3005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="15.75" customHeight="1">
+    <row r="65" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>42056.532455451394</v>
       </c>
@@ -3027,7 +3034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="15.75" customHeight="1">
+    <row r="66" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>42056.533958113425</v>
       </c>
@@ -3068,7 +3075,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="15.75" customHeight="1">
+    <row r="67" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>42056.537457650455</v>
       </c>
@@ -3100,7 +3107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="15.75" customHeight="1">
+    <row r="68" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>42056.540121076388</v>
       </c>
@@ -3132,7 +3139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="15.75" customHeight="1">
+    <row r="69" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>42056.555639814818</v>
       </c>
@@ -3161,7 +3168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="15.75" customHeight="1">
+    <row r="70" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>42056.563000138885</v>
       </c>
@@ -3193,7 +3200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="15.75" customHeight="1">
+    <row r="71" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>42056.566147777776</v>
       </c>
@@ -3225,7 +3232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="15.75" customHeight="1">
+    <row r="72" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>42056.572038171296</v>
       </c>
@@ -3257,7 +3264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="15.75" customHeight="1">
+    <row r="73" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>42056.572728912033</v>
       </c>
@@ -3286,7 +3293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="15.75" customHeight="1">
+    <row r="74" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>42056.572994108792</v>
       </c>
@@ -3330,7 +3337,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="15.75" customHeight="1">
+    <row r="75" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>42056.574988263885</v>
       </c>
@@ -3365,7 +3372,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="15.75" customHeight="1">
+    <row r="76" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>42056.584230752313</v>
       </c>
@@ -3394,7 +3401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="15.75" customHeight="1">
+    <row r="77" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>42056.588404837967</v>
       </c>
@@ -3435,7 +3442,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="15.75" customHeight="1">
+    <row r="78" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>42056.593642650463</v>
       </c>
@@ -3470,7 +3477,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="15.75" customHeight="1">
+    <row r="79" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>42056.598088287035</v>
       </c>
@@ -3499,7 +3506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="15.75" customHeight="1">
+    <row r="80" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>42056.598114525463</v>
       </c>
@@ -3540,7 +3547,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="15.75" customHeight="1">
+    <row r="81" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>42056.59946672454</v>
       </c>
@@ -3578,7 +3585,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="15.75" customHeight="1">
+    <row r="82" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>42056.599767268519</v>
       </c>
@@ -3607,7 +3614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="15.75" customHeight="1">
+    <row r="83" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>42056.599974618061</v>
       </c>
@@ -3639,7 +3646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="15.75" customHeight="1">
+    <row r="84" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>42056.601148611117</v>
       </c>
@@ -3674,7 +3681,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="15.75" customHeight="1">
+    <row r="85" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>42056.602830891199</v>
       </c>
@@ -3715,7 +3722,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="15.75" customHeight="1">
+    <row r="86" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>42056.603235995368</v>
       </c>
@@ -3744,7 +3751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="15.75" customHeight="1">
+    <row r="87" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>42056.605591817126</v>
       </c>
@@ -3773,7 +3780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="15.75" customHeight="1">
+    <row r="88" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>42056.607601747688</v>
       </c>
@@ -3811,7 +3818,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="15.75" customHeight="1">
+    <row r="89" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>42056.607712025463</v>
       </c>
@@ -3843,7 +3850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="15.75" customHeight="1">
+    <row r="90" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>42056.619968738429</v>
       </c>
@@ -3881,7 +3888,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="15.75" customHeight="1">
+    <row r="91" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>42056.619998530092</v>
       </c>
@@ -3913,7 +3920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="15.75" customHeight="1">
+    <row r="92" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>42056.623672256945</v>
       </c>
@@ -3948,7 +3955,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="15.75" customHeight="1">
+    <row r="93" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>42056.644026956019</v>
       </c>
@@ -3980,7 +3987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="15.75" customHeight="1">
+    <row r="94" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>42056.647666701392</v>
       </c>
@@ -4012,7 +4019,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="15.75" customHeight="1">
+    <row r="95" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>42056.652953495373</v>
       </c>
@@ -4044,7 +4051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="15.75" customHeight="1">
+    <row r="96" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>42056.66035223379</v>
       </c>
@@ -4076,7 +4083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="15.75" customHeight="1">
+    <row r="97" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>42056.686790671294</v>
       </c>
@@ -4108,7 +4115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="15.75" customHeight="1">
+    <row r="98" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>42056.690862986106</v>
       </c>
@@ -4137,7 +4144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="15.75" customHeight="1">
+    <row r="99" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>42056.693468738427</v>
       </c>
@@ -4166,7 +4173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="15.75" customHeight="1">
+    <row r="100" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>42056.695526875003</v>
       </c>
@@ -4198,7 +4205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="15.75" customHeight="1">
+    <row r="101" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>42056.706393576387</v>
       </c>
@@ -4230,7 +4237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="15.75" customHeight="1">
+    <row r="102" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>42056.742635833332</v>
       </c>
@@ -4265,7 +4272,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="15.75" customHeight="1">
+    <row r="103" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>42056.742827777773</v>
       </c>
@@ -4300,7 +4307,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="15.75" customHeight="1">
+    <row r="104" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>42056.744268078699</v>
       </c>
@@ -4332,7 +4339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="15.75" customHeight="1">
+    <row r="105" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>42056.756522407413</v>
       </c>
@@ -4364,7 +4371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="15.75" customHeight="1">
+    <row r="106" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>42056.766210254631</v>
       </c>
@@ -4396,7 +4403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="15.75" customHeight="1">
+    <row r="107" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>42056.781710092589</v>
       </c>
@@ -4428,7 +4435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="15.75" customHeight="1">
+    <row r="108" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>42056.782543101857</v>
       </c>
@@ -4460,7 +4467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="15.75" customHeight="1">
+    <row r="109" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>42056.793763692127</v>
       </c>
@@ -4498,7 +4505,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="15.75" customHeight="1">
+    <row r="110" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>42056.815881620372</v>
       </c>
@@ -4524,7 +4531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="15.75" customHeight="1">
+    <row r="111" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>42056.825444664348</v>
       </c>
@@ -4550,7 +4557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="15.75" customHeight="1">
+    <row r="112" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>42056.838839027776</v>
       </c>
@@ -4591,7 +4598,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="15.75" customHeight="1">
+    <row r="113" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>42056.840080891205</v>
       </c>
@@ -4626,7 +4633,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="15.75" customHeight="1">
+    <row r="114" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>42056.843807280085</v>
       </c>
@@ -4655,7 +4662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="15.75" customHeight="1">
+    <row r="115" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>42056.849806018516</v>
       </c>
@@ -4684,7 +4691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="15.75" customHeight="1">
+    <row r="116" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>42056.853525856481</v>
       </c>
@@ -4716,7 +4723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="15.75" customHeight="1">
+    <row r="117" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>42056.858049178241</v>
       </c>
@@ -4757,7 +4764,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="15.75" customHeight="1">
+    <row r="118" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>42056.85946299768</v>
       </c>
@@ -4783,7 +4790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="15.75" customHeight="1">
+    <row r="119" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>42056.859769861119</v>
       </c>
@@ -4812,7 +4819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="15.75" customHeight="1">
+    <row r="120" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>42056.872438344901</v>
       </c>
@@ -4853,7 +4860,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="15.75" customHeight="1">
+    <row r="121" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>42056.879092777781</v>
       </c>
@@ -4885,7 +4892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="15.75" customHeight="1">
+    <row r="122" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>42056.899585335646</v>
       </c>
@@ -4914,7 +4921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="15.75" customHeight="1">
+    <row r="123" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>42056.899883761573</v>
       </c>
@@ -4949,7 +4956,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="15.75" customHeight="1">
+    <row r="124" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>42056.918605196755</v>
       </c>
@@ -4975,7 +4982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="15.75" customHeight="1">
+    <row r="125" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>42056.921895173604</v>
       </c>
@@ -5016,7 +5023,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="15.75" customHeight="1">
+    <row r="126" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>42056.944510532405</v>
       </c>
@@ -5048,7 +5055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="15.75" customHeight="1">
+    <row r="127" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>42056.954649560183</v>
       </c>
@@ -5077,7 +5084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="15.75" customHeight="1">
+    <row r="128" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>42056.958260150459</v>
       </c>
@@ -5109,7 +5116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="15.75" customHeight="1">
+    <row r="129" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>42056.958456284723</v>
       </c>
@@ -5141,7 +5148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="15.75" customHeight="1">
+    <row r="130" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>42056.977245694441</v>
       </c>
@@ -5179,7 +5186,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="15.75" customHeight="1">
+    <row r="131" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>42056.987102210653</v>
       </c>
@@ -5220,7 +5227,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="15.75" customHeight="1">
+    <row r="132" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>42056.998548356481</v>
       </c>
@@ -5246,7 +5253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="15.75" customHeight="1">
+    <row r="133" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>42057.017613182878</v>
       </c>
@@ -5278,7 +5285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="15.75" customHeight="1">
+    <row r="134" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>42057.032049236113</v>
       </c>
@@ -5307,7 +5314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="15.75" customHeight="1">
+    <row r="135" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>42057.054037974536</v>
       </c>
@@ -5336,7 +5343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="15.75" customHeight="1">
+    <row r="136" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>42057.096484155089</v>
       </c>
@@ -5368,7 +5375,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="15.75" customHeight="1">
+    <row r="137" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>42057.212816493055</v>
       </c>
@@ -5400,7 +5407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="15.75" customHeight="1">
+    <row r="138" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>42057.334282928241</v>
       </c>
@@ -5438,7 +5445,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="15.75" customHeight="1">
+    <row r="139" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>42057.335032905088</v>
       </c>
@@ -5467,7 +5474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="15.75" customHeight="1">
+    <row r="140" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>42057.361305624996</v>
       </c>
@@ -5496,7 +5503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="15.75" customHeight="1">
+    <row r="141" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>42057.377349374998</v>
       </c>
@@ -5537,7 +5544,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="15.75" customHeight="1">
+    <row r="142" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>42057.397430902784</v>
       </c>
@@ -5581,7 +5588,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="15.75" customHeight="1">
+    <row r="143" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>42057.439258969905</v>
       </c>
@@ -5613,7 +5620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="15.75" customHeight="1">
+    <row r="144" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>42057.470679560181</v>
       </c>
@@ -5645,7 +5652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="15.75" customHeight="1">
+    <row r="145" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>42057.519267037038</v>
       </c>
@@ -5683,7 +5690,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="15.75" customHeight="1">
+    <row r="146" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>42057.533309571758</v>
       </c>
@@ -5724,7 +5731,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="15.75" customHeight="1">
+    <row r="147" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>42057.600044004626</v>
       </c>
@@ -5756,7 +5763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="15.75" customHeight="1">
+    <row r="148" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>42057.600900578705</v>
       </c>
@@ -5788,7 +5795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="15.75" customHeight="1">
+    <row r="149" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>42057.676138298608</v>
       </c>
@@ -5814,7 +5821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="15.75" customHeight="1">
+    <row r="150" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>42057.77110302083</v>
       </c>
@@ -5846,7 +5853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="15.75" customHeight="1">
+    <row r="151" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>42057.790722083337</v>
       </c>
@@ -5875,7 +5882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="15.75" customHeight="1">
+    <row r="152" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>42057.848272326388</v>
       </c>
@@ -5901,7 +5908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="15.75" customHeight="1">
+    <row r="153" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>42057.944249537039</v>
       </c>
@@ -5933,7 +5940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="15.75" customHeight="1">
+    <row r="154" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>42058.075563402774</v>
       </c>
@@ -5965,7 +5972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="15.75" customHeight="1">
+    <row r="155" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>42058.404732731484</v>
       </c>
@@ -5997,7 +6004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="15.75" customHeight="1">
+    <row r="156" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>42058.601995254627</v>
       </c>
@@ -6023,7 +6030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="15.75" customHeight="1">
+    <row r="157" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>42058.707427488429</v>
       </c>
@@ -6058,7 +6065,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="15.75" customHeight="1">
+    <row r="158" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>42058.723987743055</v>
       </c>
@@ -6090,7 +6097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="15.75" customHeight="1">
+    <row r="159" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>42058.858149409723</v>
       </c>
@@ -6119,7 +6126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="15.75" customHeight="1">
+    <row r="160" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>42059.558897592593</v>
       </c>
